--- a/biology/Histoire de la zoologie et de la botanique/Angela_Kepler/Angela_Kepler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Angela_Kepler/Angela_Kepler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angela Kepler est une zoologiste née en Nouvelle-Zélande le 20 décembre 1943. D'abord étudiante à l'Université de Canterbury de Nouvelle-Zélande, possède une maîtrise de l'Université d'Hawaii, un doctorat de l'Université Cornell à New York. Elle a également étudié à l'Université d'Oxford.
 Elle a effectué des recherches à Hawaï, en Alaska, en Russie et dans les Caraïbes. Elle est l'auteur de deux taxons, la Paruline d'Angela (Dendroica angelae), un passereau portoricain endémique, et une marouette préhistorique de Hawaï Porzana keplerorum.
